--- a/Original/Tables/NewTU_Features_ORG.xlsx
+++ b/Original/Tables/NewTU_Features_ORG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <sheet name="TerrainBooleans" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Features!$A$1:$AO$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Features!$B$1:$AP$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -587,13 +587,28 @@
   </si>
   <si>
     <t>TERRAIN_OCEAN</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>YieldType</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>TerrainType</t>
+  </si>
+  <si>
+    <t>TERRAIN_MOUNTAIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,8 +631,31 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +713,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
@@ -861,8 +905,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,1920 +1218,2008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A26"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="9" customWidth="1"/>
-    <col min="20" max="25" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="36" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="9" customWidth="1"/>
+    <col min="21" max="26" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="37" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="123" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="123" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+    <row r="2" spans="1:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="56"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+    </row>
+    <row r="3" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="45">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="51">
+      <c r="I3" s="51">
         <v>6</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50">
-        <v>1</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47">
-        <v>3</v>
-      </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="AD2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="51">
-        <v>7</v>
-      </c>
-      <c r="I3" s="50">
-        <v>-10</v>
-      </c>
-      <c r="J3" s="50">
-        <v>2</v>
-      </c>
+      <c r="J3" s="50"/>
       <c r="K3" s="50">
         <v>1</v>
       </c>
-      <c r="L3" s="50">
-        <v>25</v>
-      </c>
-      <c r="M3" s="47">
-        <v>1</v>
-      </c>
-      <c r="N3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="47">
+        <v>3</v>
+      </c>
       <c r="O3" s="50"/>
-      <c r="P3" s="50">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="47"/>
       <c r="U3" s="50"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
       <c r="X3" s="50"/>
       <c r="Y3" s="50"/>
-      <c r="AJ3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL3" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM3" s="45">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="50" t="s">
+      <c r="Z3" s="50"/>
+      <c r="AE3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="51">
-        <v>8</v>
-      </c>
-      <c r="I4" s="50">
+      <c r="I4" s="51">
+        <v>7</v>
+      </c>
+      <c r="J4" s="50">
         <v>-10</v>
       </c>
-      <c r="J4" s="50">
-        <v>3</v>
-      </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="50">
+        <v>2</v>
+      </c>
       <c r="L4" s="50">
-        <v>-15</v>
-      </c>
-      <c r="M4" s="47">
-        <v>1</v>
-      </c>
-      <c r="N4" s="50"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="50">
+        <v>25</v>
+      </c>
+      <c r="N4" s="47">
+        <v>1</v>
+      </c>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="50"/>
+      <c r="Q4" s="50">
+        <v>16</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="50"/>
+      <c r="T4" s="47"/>
       <c r="U4" s="50"/>
       <c r="V4" s="50"/>
       <c r="W4" s="50"/>
       <c r="X4" s="50"/>
       <c r="Y4" s="50"/>
-      <c r="AA4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN4" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="51">
-        <v>0</v>
-      </c>
-      <c r="I5" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AK4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" s="45">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="51">
+        <v>8</v>
+      </c>
       <c r="J5" s="50">
-        <v>1</v>
-      </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50">
         <v>-10</v>
       </c>
-      <c r="M5" s="47">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="50">
-        <v>500</v>
+      <c r="K5" s="50">
+        <v>3</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50">
+        <v>-15</v>
+      </c>
+      <c r="N5" s="47">
+        <v>1</v>
       </c>
       <c r="O5" s="50"/>
       <c r="P5" s="50"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="47"/>
       <c r="U5" s="50"/>
       <c r="V5" s="50"/>
       <c r="W5" s="50"/>
-      <c r="X5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN5" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="51">
-        <v>2</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50">
-        <v>1</v>
-      </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AB5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="51">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50">
+        <v>1</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50">
         <v>-10</v>
       </c>
-      <c r="M6" s="47">
+      <c r="N6" s="47">
         <v>-1</v>
       </c>
-      <c r="N6" s="50">
-        <v>10000</v>
-      </c>
-      <c r="O6" s="50"/>
+      <c r="O6" s="50">
+        <v>500</v>
+      </c>
       <c r="P6" s="50"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="47"/>
       <c r="U6" s="50"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
       <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
+      <c r="Y6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="AA6" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AB6" s="50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="AD6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO6" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="51">
-        <v>3</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50">
+      <c r="I7" s="51">
         <v>2</v>
       </c>
+      <c r="J7" s="50"/>
       <c r="K7" s="50">
         <v>1</v>
       </c>
-      <c r="L7" s="50">
-        <v>25</v>
-      </c>
-      <c r="M7" s="47">
-        <v>1</v>
-      </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50">
+        <v>-10</v>
+      </c>
+      <c r="N7" s="47">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="50">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="47"/>
       <c r="U7" s="50"/>
       <c r="V7" s="50"/>
-      <c r="W7" s="50" t="s">
-        <v>3</v>
-      </c>
+      <c r="W7" s="50"/>
       <c r="X7" s="50"/>
       <c r="Y7" s="50"/>
-      <c r="AJ7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL7" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM7" s="45">
-        <v>15</v>
-      </c>
-      <c r="AN7" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="50" t="s">
+      <c r="Z7" s="50"/>
+      <c r="AB7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="51">
-        <v>17</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50">
+      <c r="I8" s="51">
+        <v>3</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50">
         <v>2</v>
       </c>
-      <c r="K8" s="50"/>
       <c r="L8" s="50">
-        <v>-15</v>
-      </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50">
-        <v>500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M8" s="50">
+        <v>25</v>
+      </c>
+      <c r="N8" s="47">
+        <v>1</v>
+      </c>
+      <c r="O8" s="50"/>
       <c r="P8" s="50"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="50"/>
+      <c r="Q8" s="50">
+        <v>8</v>
+      </c>
+      <c r="R8" s="47"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="47"/>
       <c r="U8" s="50"/>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
+      <c r="X8" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="Y8" s="50"/>
-      <c r="AF8" s="50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="33" t="s">
+      <c r="Z8" s="50"/>
+      <c r="AK8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN8" s="45">
+        <v>15</v>
+      </c>
+      <c r="AO8" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="51">
+        <v>17</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50">
+        <v>2</v>
+      </c>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50">
+        <v>-15</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AG9" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="H10" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="35">
+      <c r="I10" s="39">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
+        <v>1</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="35">
         <v>-1</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="AF9" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="39">
-        <v>2</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38">
-        <v>1</v>
-      </c>
-      <c r="K10" s="38">
-        <v>2</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="35">
-        <v>-3</v>
-      </c>
-      <c r="N10" s="38"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="38"/>
-      <c r="V10" s="38">
-        <v>10</v>
-      </c>
-      <c r="W10" s="38" t="s">
-        <v>3</v>
-      </c>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
-      <c r="AD10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ10" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="38" t="s">
+      <c r="Z10" s="38"/>
+      <c r="AG10" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="39">
-        <v>3</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
+      <c r="I11" s="39">
+        <v>2</v>
+      </c>
+      <c r="J11" s="38"/>
       <c r="K11" s="38">
+        <v>1</v>
+      </c>
+      <c r="L11" s="38">
         <v>2</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="35">
+      <c r="M11" s="38"/>
+      <c r="N11" s="35">
         <v>-3</v>
       </c>
-      <c r="N11" s="38"/>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="35"/>
       <c r="U11" s="38"/>
-      <c r="V11" s="38">
+      <c r="V11" s="38"/>
+      <c r="W11" s="38">
         <v>10</v>
       </c>
-      <c r="W11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X11" s="38"/>
+      <c r="X11" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y11" s="38"/>
-      <c r="AD11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI11" s="38" t="s">
+      <c r="Z11" s="38"/>
+      <c r="AE11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ11" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="38" t="s">
+      <c r="AK11" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="39">
-        <v>7</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38">
-        <v>1</v>
-      </c>
+      <c r="I12" s="39">
+        <v>3</v>
+      </c>
+      <c r="J12" s="38"/>
       <c r="K12" s="38">
+        <v>1</v>
+      </c>
+      <c r="L12" s="38">
         <v>2</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="35">
+      <c r="M12" s="38"/>
+      <c r="N12" s="35">
         <v>-3</v>
       </c>
-      <c r="N12" s="38"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="35"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="38">
+      <c r="V12" s="38"/>
+      <c r="W12" s="38">
         <v>10</v>
       </c>
-      <c r="W12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" s="38"/>
+      <c r="X12" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y12" s="38"/>
-      <c r="AD12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="38" t="s">
+      <c r="Z12" s="38"/>
+      <c r="AE12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ12" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="38" t="s">
+      <c r="AK12" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="39">
-        <v>1</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="35">
+      <c r="I13" s="39">
+        <v>7</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38">
+        <v>1</v>
+      </c>
+      <c r="L13" s="38">
+        <v>2</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="35">
         <v>-3</v>
       </c>
-      <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="35"/>
       <c r="U13" s="38"/>
-      <c r="V13" s="38">
+      <c r="V13" s="38"/>
+      <c r="W13" s="38">
         <v>10</v>
       </c>
-      <c r="W13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X13" s="38"/>
+      <c r="X13" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y13" s="38"/>
-      <c r="AD13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI13" s="38" t="s">
+      <c r="Z13" s="38"/>
+      <c r="AE13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ13" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="38" t="s">
+      <c r="AK13" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="39">
-        <v>5</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38">
-        <v>1</v>
-      </c>
+      <c r="I14" s="39">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38"/>
       <c r="K14" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="38"/>
-      <c r="M14" s="35">
+      <c r="M14" s="38"/>
+      <c r="N14" s="35">
         <v>-3</v>
       </c>
-      <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="35"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="38">
+      <c r="V14" s="38"/>
+      <c r="W14" s="38">
         <v>10</v>
       </c>
-      <c r="W14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X14" s="38"/>
+      <c r="X14" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y14" s="38"/>
-      <c r="AD14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI14" s="38" t="s">
+      <c r="Z14" s="38"/>
+      <c r="AE14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ14" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="38" t="s">
+      <c r="AK14" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="39">
-        <v>8</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
+      <c r="I15" s="39">
+        <v>5</v>
+      </c>
+      <c r="J15" s="38"/>
       <c r="K15" s="38">
+        <v>1</v>
+      </c>
+      <c r="L15" s="38">
         <v>2</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="35">
+      <c r="M15" s="38"/>
+      <c r="N15" s="35">
         <v>-3</v>
       </c>
-      <c r="N15" s="38"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="35"/>
       <c r="U15" s="38"/>
-      <c r="V15" s="38">
+      <c r="V15" s="38"/>
+      <c r="W15" s="38">
         <v>10</v>
       </c>
-      <c r="W15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X15" s="38"/>
+      <c r="X15" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y15" s="38"/>
-      <c r="AD15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="38" t="s">
+      <c r="Z15" s="38"/>
+      <c r="AE15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ15" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="38" t="s">
+      <c r="AK15" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="39">
-        <v>4</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38">
-        <v>1</v>
-      </c>
+      <c r="I16" s="39">
+        <v>8</v>
+      </c>
+      <c r="J16" s="38"/>
       <c r="K16" s="38">
+        <v>1</v>
+      </c>
+      <c r="L16" s="38">
         <v>2</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="35">
+      <c r="M16" s="38"/>
+      <c r="N16" s="35">
         <v>-3</v>
       </c>
-      <c r="N16" s="38"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38">
-        <v>6</v>
-      </c>
-      <c r="V16" s="38">
+      <c r="Q16" s="38"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38">
         <v>10</v>
       </c>
-      <c r="W16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X16" s="38"/>
+      <c r="X16" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y16" s="38"/>
-      <c r="AD16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI16" s="38" t="s">
+      <c r="Z16" s="38"/>
+      <c r="AE16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ16" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
+      <c r="AK16" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="39">
+        <v>4</v>
+      </c>
+      <c r="J17" s="38"/>
       <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="L17" s="38">
         <v>2</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="35">
+      <c r="M17" s="38"/>
+      <c r="N17" s="35">
         <v>-3</v>
       </c>
-      <c r="N17" s="38"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38">
-        <v>7</v>
-      </c>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="38"/>
       <c r="V17" s="38">
+        <v>6</v>
+      </c>
+      <c r="W17" s="38">
         <v>10</v>
       </c>
-      <c r="W17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="38"/>
+      <c r="X17" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y17" s="38"/>
-      <c r="AC17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="38" t="s">
+      <c r="Z17" s="38"/>
+      <c r="AE17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ17" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="38" t="s">
+      <c r="AK17" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="39">
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38">
+        <v>1</v>
+      </c>
+      <c r="L18" s="38">
         <v>2</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38">
-        <v>1</v>
-      </c>
-      <c r="K18" s="38">
-        <v>2</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="35">
+      <c r="M18" s="38"/>
+      <c r="N18" s="35">
         <v>-3</v>
       </c>
-      <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="U18" s="38"/>
       <c r="V18" s="38">
+        <v>7</v>
+      </c>
+      <c r="W18" s="38">
         <v>10</v>
       </c>
-      <c r="W18" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="38"/>
+      <c r="X18" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
       <c r="AD18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AF18" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI18" s="38" t="s">
+      <c r="AE18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ18" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="38" t="s">
+      <c r="AK18" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
+      <c r="I19" s="39">
+        <v>2</v>
+      </c>
+      <c r="J19" s="38"/>
       <c r="K19" s="38">
+        <v>1</v>
+      </c>
+      <c r="L19" s="38">
         <v>2</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="35">
+      <c r="M19" s="38"/>
+      <c r="N19" s="35">
         <v>-3</v>
       </c>
-      <c r="N19" s="38"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="38">
-        <v>500</v>
-      </c>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="35"/>
       <c r="U19" s="38"/>
-      <c r="V19" s="38">
+      <c r="V19" s="38"/>
+      <c r="W19" s="38">
         <v>10</v>
       </c>
-      <c r="W19" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X19" s="38"/>
+      <c r="X19" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y19" s="38"/>
-      <c r="AD19" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI19" s="38" t="s">
+      <c r="Z19" s="38"/>
+      <c r="AE19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ19" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="39">
-        <v>10</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38">
-        <v>1</v>
-      </c>
+      <c r="AK19" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="38"/>
       <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="38">
         <v>2</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="35">
+      <c r="M20" s="38"/>
+      <c r="N20" s="35">
         <v>-3</v>
       </c>
-      <c r="N20" s="38"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="35"/>
       <c r="U20" s="38">
+        <v>500</v>
+      </c>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38">
+        <v>10</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AE20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="39">
+        <v>10</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38">
+        <v>1</v>
+      </c>
+      <c r="L21" s="38">
         <v>2</v>
       </c>
-      <c r="V20" s="38">
-        <v>10</v>
-      </c>
-      <c r="W20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="AD20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ20" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="39">
-        <v>9</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="38">
-        <v>2</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="35">
+      <c r="M21" s="38"/>
+      <c r="N21" s="35">
         <v>-3</v>
       </c>
-      <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="35"/>
       <c r="U21" s="38"/>
       <c r="V21" s="38">
+        <v>2</v>
+      </c>
+      <c r="W21" s="38">
         <v>10</v>
       </c>
-      <c r="W21" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="38"/>
+      <c r="X21" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y21" s="38"/>
-      <c r="AD21" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF21" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI21" s="38" t="s">
+      <c r="Z21" s="38"/>
+      <c r="AE21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ21" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="38" t="s">
+      <c r="AK21" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="39">
-        <v>8</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38">
-        <v>1</v>
-      </c>
+      <c r="I22" s="39">
+        <v>9</v>
+      </c>
+      <c r="J22" s="38"/>
       <c r="K22" s="38">
+        <v>1</v>
+      </c>
+      <c r="L22" s="38">
         <v>2</v>
       </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="35">
+      <c r="M22" s="38"/>
+      <c r="N22" s="35">
         <v>-3</v>
       </c>
-      <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38">
+      <c r="Q22" s="38"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38">
+        <v>10</v>
+      </c>
+      <c r="X22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AE22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK22" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="39">
+        <v>8</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38">
+        <v>1</v>
+      </c>
+      <c r="L23" s="38">
         <v>2</v>
       </c>
-      <c r="V22" s="38">
-        <v>10</v>
-      </c>
-      <c r="W22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="AD22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ22" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="39">
-        <v>11</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38">
-        <v>1</v>
-      </c>
-      <c r="K23" s="38">
-        <v>2</v>
-      </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="35">
+      <c r="M23" s="38"/>
+      <c r="N23" s="35">
         <v>-3</v>
       </c>
-      <c r="N23" s="38"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="35"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38">
+        <v>2</v>
+      </c>
+      <c r="W23" s="38">
         <v>10</v>
       </c>
-      <c r="W23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="38"/>
+      <c r="X23" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y23" s="38"/>
-      <c r="AD23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI23" s="38" t="s">
+      <c r="Z23" s="38"/>
+      <c r="AE23" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ23" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="39">
-        <v>3</v>
-      </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38">
-        <v>1</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="35">
+      <c r="AK23" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="39">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38">
+        <v>1</v>
+      </c>
+      <c r="L24" s="38">
+        <v>2</v>
+      </c>
+      <c r="M24" s="38"/>
+      <c r="N24" s="35">
         <v>-3</v>
       </c>
-      <c r="N24" s="38"/>
       <c r="O24" s="38"/>
       <c r="P24" s="38"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="35"/>
       <c r="U24" s="38"/>
-      <c r="V24" s="38">
+      <c r="V24" s="38"/>
+      <c r="W24" s="38">
         <v>10</v>
       </c>
-      <c r="W24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" s="38"/>
+      <c r="X24" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y24" s="38"/>
-      <c r="AC24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI24" s="38" t="s">
+      <c r="Z24" s="38"/>
+      <c r="AE24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ24" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="38" t="s">
+      <c r="AK24" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="39">
-        <v>4</v>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38">
-        <v>1</v>
-      </c>
+      <c r="I25" s="39">
+        <v>3</v>
+      </c>
+      <c r="J25" s="38"/>
       <c r="K25" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" s="38"/>
-      <c r="M25" s="35">
+      <c r="M25" s="38"/>
+      <c r="N25" s="35">
         <v>-3</v>
       </c>
-      <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="35"/>
       <c r="U25" s="38"/>
-      <c r="V25" s="38">
+      <c r="V25" s="38"/>
+      <c r="W25" s="38">
         <v>10</v>
       </c>
-      <c r="W25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X25" s="38"/>
+      <c r="X25" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
       <c r="AD25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI25" s="38" t="s">
+      <c r="AE25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ25" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="38" t="s">
+      <c r="AK25" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="39">
+      <c r="I26" s="39">
+        <v>4</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38">
+        <v>1</v>
+      </c>
+      <c r="L26" s="38">
         <v>2</v>
       </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38">
-        <v>1</v>
-      </c>
-      <c r="K26" s="38">
-        <v>2</v>
-      </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="35">
+      <c r="M26" s="38"/>
+      <c r="N26" s="35">
         <v>-3</v>
       </c>
-      <c r="N26" s="38"/>
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="U26" s="38"/>
-      <c r="V26" s="38">
+      <c r="V26" s="38"/>
+      <c r="W26" s="38">
+        <v>10</v>
+      </c>
+      <c r="X26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AE26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK26" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="39">
+        <v>2</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38">
+        <v>1</v>
+      </c>
+      <c r="L27" s="38">
+        <v>2</v>
+      </c>
+      <c r="M27" s="38"/>
+      <c r="N27" s="35">
+        <v>-3</v>
+      </c>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38">
         <v>4</v>
       </c>
-      <c r="W26" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="AD26" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF26" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI26" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ26" s="38" t="s">
+      <c r="X27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AE27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK27" s="38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO26"/>
+  <autoFilter ref="B1:AP27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="11" customWidth="1"/>
-    <col min="10" max="14" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="41" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="11" customWidth="1"/>
+    <col min="11" max="15" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="42" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="123" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="123" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40">
+    <row r="2" spans="1:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="56"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+    </row>
+    <row r="3" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="40">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C3" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D3" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="43" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="44">
+      <c r="H3" s="44">
         <v>10</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-    </row>
-    <row r="3" spans="1:41" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="44">
-        <v>13</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43" t="s">
-        <v>168</v>
-      </c>
+      <c r="I3" s="42"/>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
       <c r="N3" s="43"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="42"/>
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
       <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
+      <c r="Z3" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="AA3" s="43"/>
       <c r="AB3" s="43"/>
       <c r="AC3" s="43"/>
@@ -3073,6 +3235,67 @@
       <c r="AM3" s="43"/>
       <c r="AN3" s="43"/>
       <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+    </row>
+    <row r="4" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="40">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="44">
+        <v>13</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3088,52 +3311,66 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
@@ -3437,52 +3674,66 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
@@ -3648,52 +3899,66 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
@@ -3837,13 +4102,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,50 +4116,47 @@
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="53" t="s">
+    </row>
+    <row r="2" spans="1:10" s="54" customFormat="1" ht="81.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D2" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E2" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F2" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I2" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
@@ -3909,9 +4171,9 @@
       <c r="H3" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>48</v>
       </c>
@@ -3924,9 +4186,9 @@
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>56</v>
       </c>
@@ -3939,9 +4201,9 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>62</v>
       </c>
@@ -3954,9 +4216,9 @@
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>68</v>
       </c>
@@ -3969,9 +4231,9 @@
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>72</v>
       </c>
@@ -3988,9 +4250,9 @@
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>77</v>
       </c>
@@ -4001,9 +4263,9 @@
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>126</v>
       </c>
@@ -4018,9 +4280,9 @@
       <c r="H10" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>81</v>
       </c>
@@ -4031,9 +4293,9 @@
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>86</v>
       </c>
@@ -4044,9 +4306,9 @@
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>90</v>
       </c>
@@ -4057,9 +4319,9 @@
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>94</v>
       </c>
@@ -4070,9 +4332,9 @@
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>98</v>
       </c>
@@ -4083,9 +4345,9 @@
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>102</v>
       </c>
@@ -4096,9 +4358,9 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>106</v>
       </c>
@@ -4109,9 +4371,9 @@
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>110</v>
       </c>
@@ -4122,9 +4384,9 @@
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>117</v>
       </c>
@@ -4135,9 +4397,9 @@
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>121</v>
       </c>
@@ -4148,9 +4410,9 @@
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>130</v>
       </c>
@@ -4161,9 +4423,9 @@
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>135</v>
       </c>
@@ -4174,9 +4436,9 @@
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>139</v>
       </c>
@@ -4187,9 +4449,9 @@
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>143</v>
       </c>
@@ -4200,9 +4462,9 @@
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>147</v>
       </c>
@@ -4213,9 +4475,9 @@
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>152</v>
       </c>
@@ -4226,9 +4488,9 @@
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
       <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="55"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>158</v>
       </c>
@@ -4239,9 +4501,9 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>162</v>
       </c>
@@ -4252,9 +4514,9 @@
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4527,7 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Original/Tables/NewTU_Features_ORG.xlsx
+++ b/Original/Tables/NewTU_Features_ORG.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="189">
   <si>
     <t>ID</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>TXT_KEY_CIV5_FEATURES_RIVER_MVT_TEXT</t>
-  </si>
-  <si>
-    <t>ResourceType</t>
   </si>
   <si>
     <t>YIELD_FOOD</t>
@@ -1407,7 +1404,7 @@
     </row>
     <row r="3" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="45">
         <v>0</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="4" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>48</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="5" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>56</v>
@@ -1589,7 +1586,7 @@
     </row>
     <row r="6" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>62</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="7" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>68</v>
@@ -1715,7 +1712,7 @@
     </row>
     <row r="8" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>72</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="9" spans="1:42" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>77</v>
@@ -1833,7 +1830,7 @@
     </row>
     <row r="10" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>126</v>
@@ -1881,7 +1878,7 @@
     </row>
     <row r="11" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>81</v>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="12" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>86</v>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="13" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>90</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="14" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>94</v>
@@ -2131,7 +2128,7 @@
     </row>
     <row r="15" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>98</v>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="16" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>102</v>
@@ -2257,7 +2254,7 @@
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>106</v>
@@ -2322,7 +2319,7 @@
     </row>
     <row r="18" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>110</v>
@@ -2394,7 +2391,7 @@
     </row>
     <row r="19" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>117</v>
@@ -2457,7 +2454,7 @@
     </row>
     <row r="20" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>121</v>
@@ -2524,7 +2521,7 @@
     </row>
     <row r="21" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>130</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="22" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>135</v>
@@ -2652,7 +2649,7 @@
     </row>
     <row r="23" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>139</v>
@@ -2717,7 +2714,7 @@
     </row>
     <row r="24" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>143</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="25" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>147</v>
@@ -2844,7 +2841,7 @@
     </row>
     <row r="26" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>152</v>
@@ -2911,7 +2908,7 @@
     </row>
     <row r="27" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>158</v>
@@ -3179,7 +3176,7 @@
     </row>
     <row r="3" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="40">
         <v>0</v>
@@ -3239,7 +3236,7 @@
     </row>
     <row r="4" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="40">
         <v>1</v>
@@ -3328,48 +3325,48 @@
   <sheetData>
     <row r="1" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3691,48 +3688,48 @@
   <sheetData>
     <row r="1" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3899,7 +3896,7 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3916,48 +3913,48 @@
   <sheetData>
     <row r="1" spans="1:7" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4108,7 +4105,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,39 +4118,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="54" customFormat="1" ht="81.75" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="F2" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>181</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4166,10 +4163,10 @@
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J3" s="55"/>
     </row>
@@ -4179,7 +4176,7 @@
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -4193,7 +4190,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -4210,7 +4207,7 @@
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
@@ -4225,7 +4222,7 @@
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -4238,14 +4235,14 @@
         <v>72</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
@@ -4275,10 +4272,10 @@
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
       <c r="G10" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J10" s="55"/>
     </row>
